--- a/data/trans_bre/P14B23-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.451359274645997</v>
+        <v>7.391228114049436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.167996390446092</v>
+        <v>5.278042213785673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.165697692427113</v>
+        <v>0.9858766248742147</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.407407903009946</v>
+        <v>1.416334786129604</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.145644750258338</v>
+        <v>1.181470896493883</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07852073243905205</v>
+        <v>0.07820543793069595</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.28753287639037</v>
+        <v>12.26287749534618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.495378368533009</v>
+        <v>9.728199560220487</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.287889409405762</v>
+        <v>8.173984044598026</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4.039542640557345</v>
+        <v>3.844562446303158</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.513783661298747</v>
+        <v>3.394341827473361</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9988089652637281</v>
+        <v>1.053376744463791</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.114082799536972</v>
+        <v>1.892564778373139</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.715619697168612</v>
+        <v>1.724568836624808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.296162707720718</v>
+        <v>3.467632845980093</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6460998760705949</v>
+        <v>0.6373529240185211</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7957959152759356</v>
+        <v>0.7176147192923462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8492915555336432</v>
+        <v>0.8678443054272714</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.528416811409893</v>
+        <v>5.517392086562039</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.913744244249917</v>
+        <v>4.992371638875298</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.698971624007924</v>
+        <v>6.910365567069412</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.873726486598825</v>
+        <v>3.776492930606996</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.612939466315714</v>
+        <v>5.045926614519825</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.098984279469027</v>
+        <v>3.271208867966341</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>2.892006083426678</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.457775276660375</v>
+        <v>4.457775276660376</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>1.545190566039002</v>
@@ -791,7 +791,7 @@
         <v>2.691159398413034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2.126171700133165</v>
+        <v>2.126171700133166</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.256569566123657</v>
+        <v>1.406388388604402</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.282080670442552</v>
+        <v>1.262562584247076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.018241515879726</v>
+        <v>2.788873530936384</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2933753520175287</v>
+        <v>0.4524136072749576</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5668403380731114</v>
+        <v>0.6320400428866524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.006765433220075</v>
+        <v>0.8909991046028414</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.949181878393828</v>
+        <v>5.176709191309384</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.577838674200322</v>
+        <v>4.612396707358597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.088750163552497</v>
+        <v>6.071949449188583</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.616689283373365</v>
+        <v>3.987101601331557</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.905456765789071</v>
+        <v>7.747563151271313</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.958386692649908</v>
+        <v>3.955235460842084</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.736827022523804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2.231502388549223</v>
+        <v>2.231502388549224</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>3.618333435513305</v>
@@ -873,7 +873,7 @@
         <v>6.719996186155439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7951635891642214</v>
+        <v>0.7951635891642219</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.299073545012644</v>
+        <v>1.245333399834389</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.24040443849265</v>
+        <v>1.263928322319408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5261197931123861</v>
+        <v>0.378382885559199</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3810220144157947</v>
+        <v>0.4818133052943233</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6036777765791338</v>
+        <v>0.3654280129845847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1199485310890691</v>
+        <v>0.06597706493588036</v>
       </c>
     </row>
     <row r="15">
@@ -910,20 +910,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.238438674818143</v>
+        <v>5.339095881850977</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.80672211313141</v>
+        <v>4.69710775229384</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.847167129751883</v>
+        <v>3.791694578084765</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17.99587283539602</v>
+        <v>15.54571176556234</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>2.02927579424805</v>
+        <v>1.981760535657473</v>
       </c>
     </row>
     <row r="16">
@@ -964,22 +964,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.396838048399948</v>
+        <v>4.369670317442885</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.763989034785414</v>
+        <v>3.624281286140954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.374077280545396</v>
+        <v>3.432833380599862</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.444157741167179</v>
+        <v>1.451478079448973</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.599817531853878</v>
+        <v>1.526695789367128</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8073685843420594</v>
+        <v>0.8293058735430135</v>
       </c>
     </row>
     <row r="18">
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.557888503139157</v>
+        <v>6.577240934164824</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.742830704128155</v>
+        <v>5.615234731838552</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.412113606230101</v>
+        <v>5.35912800172791</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.142875605828873</v>
+        <v>3.126420135066739</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.486094849992462</v>
+        <v>3.405775744717693</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.700589680338674</v>
+        <v>1.704923515157442</v>
       </c>
     </row>
     <row r="19">
